--- a/tables/xls/it/62_Materiali.xlsx
+++ b/tables/xls/it/62_Materiali.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>ORGANIZZAZIONE</t>
   </si>
@@ -66,7 +66,7 @@
     <t>DATA FINE ATTESTATO</t>
   </si>
   <si>
-    <t>ULTERIORI NOTE</t>
+    <t>NOTE ULTERIORI</t>
   </si>
   <si>
     <t>Sequenza</t>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>Testo Lungo</t>
-  </si>
-  <si>
-    <t>CARATTERISTICHE</t>
   </si>
   <si>
     <t>MATERIALI</t>
@@ -1368,7 +1365,7 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1398,7 +1395,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1406,13 +1403,13 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
         <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1420,13 +1417,13 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
         <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1442,7 +1439,7 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1474,7 +1471,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/tables/xls/it/62_Materiali.xlsx
+++ b/tables/xls/it/62_Materiali.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>ORGANIZZAZIONE</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>DATA/ORA USCITA</t>
+  </si>
+  <si>
+    <t>SLQP</t>
   </si>
   <si>
     <t>DATA INIZIO ATTEST.</t>
@@ -827,10 +830,10 @@
         <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
         <v>16</v>
@@ -883,13 +886,13 @@
         <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1053,7 +1056,7 @@
       </c>
       <c r="O8"/>
       <c r="P8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
@@ -1189,7 +1192,9 @@
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
-      <c r="O11"/>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
@@ -1267,7 +1272,9 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13"/>
+      <c r="O13" t="s">
+        <v>55</v>
+      </c>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
@@ -1395,7 +1402,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1403,13 +1410,13 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1417,13 +1424,13 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1439,7 +1446,7 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1471,7 +1478,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/tables/xls/it/62_Materiali.xlsx
+++ b/tables/xls/it/62_Materiali.xlsx
@@ -649,15 +649,6 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
@@ -899,25 +890,9 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
       <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
@@ -927,7 +902,7 @@
         <v>255</v>
       </c>
       <c r="C6">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>255</v>
@@ -1035,16 +1010,6 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
       <c r="L8" t="s">
         <v>49</v>
       </c>
@@ -1054,12 +1019,9 @@
       <c r="N8" t="s">
         <v>53</v>
       </c>
-      <c r="O8"/>
       <c r="P8" t="s">
         <v>58</v>
       </c>
-      <c r="Q8"/>
-      <c r="R8"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
@@ -1177,27 +1139,15 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
       <c r="G11" t="s">
         <v>43</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
       <c r="O11" t="s">
         <v>43</v>
       </c>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -1259,25 +1209,9 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
       <c r="O13" t="s">
         <v>55</v>
       </c>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
@@ -1319,10 +1253,6 @@
       <c r="M14" t="s">
         <v>44</v>
       </c>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
       <c r="R14" t="s">
         <v>44</v>
       </c>
@@ -1367,10 +1297,6 @@
       <c r="M15" t="s">
         <v>11</v>
       </c>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
       <c r="R15" t="s">
         <v>16</v>
       </c>
@@ -1379,23 +1305,6 @@
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
@@ -1485,14 +1394,5 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/tables/xls/it/62_Materiali.xlsx
+++ b/tables/xls/it/62_Materiali.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>ORGANIZZAZIONE</t>
   </si>
@@ -150,7 +150,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>MATERIALI ATTESI</t>
+    <t>DB MATERIALI</t>
   </si>
   <si>
     <t>COD. INV.</t>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Non assegnata,Attrezzature speciali,Attrezzi vari,Container,Effetti letterecci,Generatori,Materiale AIB,Materiale antinquinante,Materiale elettrico,Materiale idraulico e idrogeologico,Radio e dispositivi TLC,Tende</t>
+  </si>
+  <si>
+    <t>Non assegnata,--Attrezzature speciali,Apparato climatizzazione,Arva,Aspiratore,Aspiratore ad aria,Cisterna per idrocarburi,Compressore,Drone per riprese aeree,Gruppo,Martello,Martinetto,Materiale nautici e subacquei,Nastro traportatore,Officina,Pallone di sollevamento,Ponte Bailey,Potabilizzatore,Rasasiepi,Robot subaqueo,Saldatrice,Serbatoio per acqua potabile,Sonda,Spaccarocce,Transpallet,Trivella,Vibroinfissore,--Attrezzi vari,Attrezzi da lavoro,Carriola Badile,DPI,Decespugliatore,Estintore,Grella di camminamento,Materiale da campeggio,Materiale per sollevamento,Motosega,Panca,Scala,Sedia,Tavolo,--Container,Attrezzati,Da trasporto,--Effetti letterecci,Branda,Coperta,Cuscino/guanciale,Lenzuola,Materasso,Sacco a pelo,Sacco lenzuolo,--Generatori,Generatore,--Materiale AIB,Chiave idratante,Colonnina a terra presa acqua,Lancia,Manichette,Modulo AIB,Raccordo / riduzione,Serbatoio, cisterna antincendio,Soffiatore,Vasca,--Materiale antinquinante,Assorbente solido,Disperdente prodotti petroliferi,Panna antiinquinamento,Solvente antinquinante,--Materiale elettrico,Adattatore,Altro materiale elettrico,Asciugatrice,Cavi elettrici,Condizionatore,Dispenser,Frigor portatile,Impianto di illuminazione,Lampada portatile,Lavatrice,Macchina distribuzione automatica,Quadro elettrico,Riscaldatore - generatore aria calda,Spina,Termosifone elettrico,Torre faro,--Materiale idraulico e idrogeologico,Elettropompa,Insacchettatrice,Modulo Idrogeologico,Motopompa,Tubazioni,--Radio e dispositivi TLC,Apparati radio da rack,Radio,Telefono satellitare,XCO-2020,--Tende,A pali,Gazebo,Multifunzione,Pneumatica,Sociale,Tensostruttura,Tipo p88</t>
   </si>
   <si>
     <t>COD. ORGANIZZAZIONE</t>
@@ -231,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -561,7 +564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -653,7 +656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -803,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
@@ -815,16 +818,16 @@
         <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R3" t="s">
         <v>16</v>
@@ -847,7 +850,7 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
@@ -871,19 +874,19 @@
         <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -893,6 +896,9 @@
       <c r="E5" t="s">
         <v>47</v>
       </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
@@ -1011,16 +1017,16 @@
         <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1210,7 +1216,7 @@
         <v>28</v>
       </c>
       <c r="O13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1247,12 +1253,6 @@
       <c r="K14" t="s">
         <v>44</v>
       </c>
-      <c r="L14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" t="s">
-        <v>44</v>
-      </c>
       <c r="R14" t="s">
         <v>44</v>
       </c>
@@ -1291,12 +1291,6 @@
       <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="L15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" t="s">
-        <v>11</v>
-      </c>
       <c r="R15" t="s">
         <v>16</v>
       </c>
@@ -1311,7 +1305,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1319,13 +1313,13 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1333,13 +1327,13 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1355,7 +1349,7 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1387,7 +1381,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/tables/xls/it/62_Materiali.xlsx
+++ b/tables/xls/it/62_Materiali.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>ORGANIZZAZIONE</t>
   </si>
@@ -27,6 +27,9 @@
     <t>CODICE INVENTARIO</t>
   </si>
   <si>
+    <t>ID MATERIALE</t>
+  </si>
+  <si>
     <t>CATEGORIA</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
   </si>
   <si>
     <t>COD. INV.</t>
+  </si>
+  <si>
+    <t>ID MAT.</t>
   </si>
   <si>
     <t>Testo - Elenco di valori</t>
@@ -568,7 +574,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,23 +585,24 @@
     <col min="1" max="1" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="26.993" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="31.707" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="31.707" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="17.567" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,6 +653,9 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +670,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,7 +678,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -720,10 +730,13 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -735,51 +748,54 @@
         <v>3</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>12</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>14</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -788,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -806,10 +822,10 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
         <v>10</v>
@@ -818,91 +834,97 @@
         <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
         <v>57</v>
       </c>
       <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="s">
         <v>60</v>
       </c>
-      <c r="R3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>58</v>
-      </c>
       <c r="R4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>60</v>
+      </c>
+      <c r="S4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>255</v>
@@ -917,10 +939,10 @@
         <v>255</v>
       </c>
       <c r="F6">
+        <v>255</v>
+      </c>
+      <c r="G6">
         <v>100</v>
-      </c>
-      <c r="G6">
-        <v>255</v>
       </c>
       <c r="H6">
         <v>255</v>
@@ -938,10 +960,10 @@
         <v>255</v>
       </c>
       <c r="M6">
+        <v>255</v>
+      </c>
+      <c r="N6">
         <v>10</v>
-      </c>
-      <c r="N6">
-        <v>255</v>
       </c>
       <c r="O6">
         <v>255</v>
@@ -953,313 +975,328 @@
         <v>255</v>
       </c>
       <c r="R6">
+        <v>255</v>
+      </c>
+      <c r="S6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>44</v>
+      </c>
+      <c r="S7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>53</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>44</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>43</v>
+      </c>
+      <c r="S10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>44</v>
+      </c>
+      <c r="S12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1270,9 +1307,6 @@
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
       <c r="F15" t="s">
         <v>4</v>
       </c>
@@ -1291,97 +1325,100 @@
       <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="R15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
